--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_291__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_291__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,43 +5417,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-0.2441960573196411</c:v>
+                  <c:v>-0.2441990077495575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.01498877163976431</c:v>
+                  <c:v>-0.01498729828745127</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.78216552734375</c:v>
+                  <c:v>40.78219223022461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.43442535400391</c:v>
+                  <c:v>20.43441963195801</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>89.98944091796875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.98148345947266</c:v>
+                  <c:v>70.98149871826172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.5565463304519653</c:v>
+                  <c:v>-0.5565242171287537</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.3712478876113892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.89342498779297</c:v>
+                  <c:v>90.8934326171875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.3569689989089966</c:v>
+                  <c:v>-0.3569807708263397</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91.99648284912109</c:v>
+                  <c:v>91.99646759033203</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.08821533620357513</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.437804102897644</c:v>
+                  <c:v>-0.4378099739551544</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>74.58477783203125</c:v>
@@ -5462,130 +5462,130 @@
                   <c:v>93.42436218261719</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82.08551025390625</c:v>
+                  <c:v>82.08550262451172</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>68.07187652587891</c:v>
+                  <c:v>68.07188415527344</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>85.06169891357422</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.3360801637172699</c:v>
+                  <c:v>-0.3360831141471863</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>93.62491607666016</c:v>
+                  <c:v>93.62492370605469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>59.54505157470703</c:v>
+                  <c:v>59.5450439453125</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>94.17675018310547</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.084122657775879</c:v>
+                  <c:v>2.084116697311401</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.5963003635406494</c:v>
+                  <c:v>-0.5962974429130554</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.09041865915060043</c:v>
+                  <c:v>-0.09041570872068405</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.3137818276882172</c:v>
+                  <c:v>-0.3137906789779663</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.6473817825317383</c:v>
+                  <c:v>-0.6473788619041443</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.3916050493717194</c:v>
+                  <c:v>-0.3916109204292297</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>80.52100372314453</c:v>
+                  <c:v>80.52099609375</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-0.3249575197696686</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>93.01057434082031</c:v>
+                  <c:v>93.01058959960938</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>94.16035461425781</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.4633955955505371</c:v>
+                  <c:v>-0.4633867740631104</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>88.1591796875</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.464689016342163</c:v>
+                  <c:v>2.46468448638916</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>92.56592559814453</c:v>
+                  <c:v>92.56594848632812</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.3339254260063171</c:v>
+                  <c:v>-0.3339239656925201</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>80.45936584472656</c:v>
+                  <c:v>80.45937347412109</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70.73287200927734</c:v>
+                  <c:v>70.73288726806641</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10.34590148925781</c:v>
+                  <c:v>10.34589004516602</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>90.62210083007812</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.67000412940979</c:v>
+                  <c:v>-0.6699967384338379</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>93.30246734619141</c:v>
+                  <c:v>93.30247497558594</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>97.34709930419922</c:v>
+                  <c:v>97.34709167480469</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.279241532087326</c:v>
+                  <c:v>-0.2792385816574097</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-0.4417144060134888</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>94.53459930419922</c:v>
+                  <c:v>94.53461456298828</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.04643912240862846</c:v>
+                  <c:v>0.04643765091896057</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>-0.145784467458725</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>91.98361206054688</c:v>
+                  <c:v>91.98362731933594</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>81.53255462646484</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1.298616409301758</c:v>
+                  <c:v>-1.298614978790283</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>94.4271240234375</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>88.10169982910156</c:v>
+                  <c:v>88.1016845703125</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>91.64330291748047</c:v>
+                  <c:v>91.643310546875</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.3420214653015137</c:v>
+                  <c:v>-0.3420332372188568</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>97.49033355712891</c:v>
+                  <c:v>97.49032592773438</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>87.67211151123047</c:v>
@@ -5597,19 +5597,19 @@
                   <c:v>93.7005615234375</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.4127516150474548</c:v>
+                  <c:v>-0.4127501547336578</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.2560094594955444</c:v>
+                  <c:v>-0.2560124099254608</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.6805641651153564</c:v>
+                  <c:v>0.6805656552314758</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0.9962753653526306</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>89.83586883544922</c:v>
+                  <c:v>89.83586120605469</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>-0.6016820073127747</c:v>
@@ -5618,7 +5618,7 @@
                   <c:v>67.10699462890625</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.2117191553115845</c:v>
+                  <c:v>-0.2117221057415009</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>93.62435150146484</c:v>
@@ -5630,7 +5630,7 @@
                   <c:v>96.29539489746094</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>87.94051361083984</c:v>
+                  <c:v>87.94052886962891</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>91.87442779541016</c:v>
@@ -5639,28 +5639,28 @@
                   <c:v>-0.2666784822940826</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>92.33238220214844</c:v>
+                  <c:v>92.33237457275391</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>96.55777740478516</c:v>
+                  <c:v>96.55776977539062</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>80.23228454589844</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>85.75758361816406</c:v>
+                  <c:v>85.75756072998047</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.5341081023216248</c:v>
+                  <c:v>-0.5341066122055054</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>24.57994079589844</c:v>
+                  <c:v>24.57993316650391</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>94.86160278320312</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>63.28115844726562</c:v>
+                  <c:v>63.28114700317383</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>-0.3802408576011658</c:v>
@@ -5675,16 +5675,16 @@
                   <c:v>-0.1977731287479401</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.2240936905145645</c:v>
+                  <c:v>-0.2240907549858093</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>95.84027862548828</c:v>
+                  <c:v>95.84029388427734</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.4301675856113434</c:v>
+                  <c:v>-0.4301705360412598</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>93.32189178466797</c:v>
+                  <c:v>93.32187652587891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.2441960573196411</v>
+        <v>-0.2441990077495575</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.01498877163976431</v>
+        <v>-0.01498729828745127</v>
       </c>
       <c r="G3">
         <v>101</v>
@@ -6443,7 +6443,7 @@
         <v>31.3344</v>
       </c>
       <c r="F4">
-        <v>40.78216552734375</v>
+        <v>40.78219223022461</v>
       </c>
       <c r="G4">
         <v>101</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.43442535400391</v>
+        <v>20.43441963195801</v>
       </c>
       <c r="G5">
         <v>101</v>
@@ -6539,7 +6539,7 @@
         <v>48.757</v>
       </c>
       <c r="F7">
-        <v>70.98148345947266</v>
+        <v>70.98149871826172</v>
       </c>
       <c r="G7">
         <v>101</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.5565463304519653</v>
+        <v>-0.5565242171287537</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>90.36060000000001</v>
       </c>
       <c r="F10">
-        <v>90.89342498779297</v>
+        <v>90.8934326171875</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.3569689989089966</v>
+        <v>-0.3569807708263397</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>91.3809</v>
       </c>
       <c r="F12">
-        <v>91.99648284912109</v>
+        <v>91.99646759033203</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.437804102897644</v>
+        <v>-0.4378099739551544</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>80.1264</v>
       </c>
       <c r="F17">
-        <v>82.08551025390625</v>
+        <v>82.08550262451172</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6771,7 +6771,7 @@
         <v>63.9475</v>
       </c>
       <c r="F18">
-        <v>68.07187652587891</v>
+        <v>68.07188415527344</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.3360801637172699</v>
+        <v>-0.3360831141471863</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>98.4349</v>
       </c>
       <c r="F21">
-        <v>93.62491607666016</v>
+        <v>93.62492370605469</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>33.6509</v>
       </c>
       <c r="F22">
-        <v>59.54505157470703</v>
+        <v>59.5450439453125</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.084122657775879</v>
+        <v>2.084116697311401</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.5963003635406494</v>
+        <v>-0.5962974429130554</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.09041865915060043</v>
+        <v>-0.09041570872068405</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.3137818276882172</v>
+        <v>-0.3137906789779663</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-0.6473817825317383</v>
+        <v>-0.6473788619041443</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-0.3916050493717194</v>
+        <v>-0.3916109204292297</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>77.453</v>
       </c>
       <c r="F30">
-        <v>80.52100372314453</v>
+        <v>80.52099609375</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>94.3853</v>
       </c>
       <c r="F32">
-        <v>93.01057434082031</v>
+        <v>93.01058959960938</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-0.4633955955505371</v>
+        <v>-0.4633867740631104</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>2.464689016342163</v>
+        <v>2.46468448638916</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>93.1272</v>
       </c>
       <c r="F37">
-        <v>92.56592559814453</v>
+        <v>92.56594848632812</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-0.3339254260063171</v>
+        <v>-0.3339239656925201</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>81.6122</v>
       </c>
       <c r="F39">
-        <v>80.45936584472656</v>
+        <v>80.45937347412109</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>60.3363</v>
       </c>
       <c r="F40">
-        <v>70.73287200927734</v>
+        <v>70.73288726806641</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>69.4635</v>
       </c>
       <c r="F41">
-        <v>10.34590148925781</v>
+        <v>10.34589004516602</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-0.67000412940979</v>
+        <v>-0.6699967384338379</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>97.666</v>
       </c>
       <c r="F44">
-        <v>93.30246734619141</v>
+        <v>93.30247497558594</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>97.0868</v>
       </c>
       <c r="F45">
-        <v>97.34709930419922</v>
+        <v>97.34709167480469</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-0.279241532087326</v>
+        <v>-0.2792385816574097</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>96.9224</v>
       </c>
       <c r="F48">
-        <v>94.53459930419922</v>
+        <v>94.53461456298828</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.04643912240862846</v>
+        <v>0.04643765091896057</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>95.00530000000001</v>
       </c>
       <c r="F51">
-        <v>91.98361206054688</v>
+        <v>91.98362731933594</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-1.298616409301758</v>
+        <v>-1.298614978790283</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>80.4803</v>
       </c>
       <c r="F55">
-        <v>88.10169982910156</v>
+        <v>88.1016845703125</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>93.425</v>
       </c>
       <c r="F56">
-        <v>91.64330291748047</v>
+        <v>91.643310546875</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-0.3420214653015137</v>
+        <v>-0.3420332372188568</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>98.0081</v>
       </c>
       <c r="F58">
-        <v>97.49033355712891</v>
+        <v>97.49032592773438</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.4127516150474548</v>
+        <v>-0.4127501547336578</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-0.2560094594955444</v>
+        <v>-0.2560124099254608</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0.6805641651153564</v>
+        <v>0.6805656552314758</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.69540000000001</v>
       </c>
       <c r="F66">
-        <v>89.83586883544922</v>
+        <v>89.83586120605469</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-0.2117191553115845</v>
+        <v>-0.2117221057415009</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>89.2407</v>
       </c>
       <c r="F73">
-        <v>87.94051361083984</v>
+        <v>87.94052886962891</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>94.8021</v>
       </c>
       <c r="F76">
-        <v>92.33238220214844</v>
+        <v>92.33237457275391</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>98.31310000000001</v>
       </c>
       <c r="F77">
-        <v>96.55777740478516</v>
+        <v>96.55776977539062</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>88.10899999999999</v>
       </c>
       <c r="F79">
-        <v>85.75758361816406</v>
+        <v>85.75756072998047</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-0.5341081023216248</v>
+        <v>-0.5341066122055054</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>24.57994079589844</v>
+        <v>24.57993316650391</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>61.4721</v>
       </c>
       <c r="F83">
-        <v>63.28115844726562</v>
+        <v>63.28114700317383</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-0.2240936905145645</v>
+        <v>-0.2240907549858093</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>97.99339999999999</v>
       </c>
       <c r="F89">
-        <v>95.84027862548828</v>
+        <v>95.84029388427734</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-0.4301675856113434</v>
+        <v>-0.4301705360412598</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>94.4374</v>
       </c>
       <c r="F91">
-        <v>93.32189178466797</v>
+        <v>93.32187652587891</v>
       </c>
     </row>
     <row r="92" spans="1:6">
